--- a/data/analysis/temporal_analysis/museum_activity_groups_var1_country.xlsx
+++ b/data/analysis/temporal_analysis/museum_activity_groups_var1_country.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
   <si>
     <t>msg_count_twitter</t>
   </si>
@@ -22,6 +22,9 @@
     <t>msg_count_facebook</t>
   </si>
   <si>
+    <t>sum</t>
+  </si>
+  <si>
     <t>mean</t>
   </si>
   <si>
@@ -44,6 +47,9 @@
   </si>
   <si>
     <t>count</t>
+  </si>
+  <si>
+    <t>msg_per_mus</t>
   </si>
   <si>
     <t>active_mus_n</t>
@@ -431,13 +437,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W9"/>
+  <dimension ref="A1:AA9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:27">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -452,11 +458,11 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
@@ -465,8 +471,12 @@
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:27">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -502,57 +512,69 @@
         <v>12</v>
       </c>
       <c r="M2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="Z2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:27">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:27">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B4">
+        <v>2036</v>
+      </c>
+      <c r="C4">
         <v>84.8</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>348.2</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
       <c r="E4">
         <v>0</v>
       </c>
@@ -563,413 +585,485 @@
         <v>0</v>
       </c>
       <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
         <v>1704</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>24</v>
       </c>
-      <c r="J4">
+      <c r="K4">
+        <v>84.8</v>
+      </c>
+      <c r="L4">
         <v>4</v>
       </c>
-      <c r="K4">
+      <c r="M4">
         <v>16.7</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>-1.6</v>
       </c>
-      <c r="M4">
+      <c r="O4">
+        <v>859</v>
+      </c>
+      <c r="P4">
         <v>35.8</v>
       </c>
-      <c r="N4">
+      <c r="Q4">
         <v>135.2</v>
       </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
         <v>632</v>
       </c>
-      <c r="T4">
+      <c r="W4">
         <v>24</v>
       </c>
-      <c r="U4">
+      <c r="X4">
+        <v>35.8</v>
+      </c>
+      <c r="Y4">
         <v>2</v>
       </c>
-      <c r="V4">
+      <c r="Z4">
         <v>8.300000000000001</v>
       </c>
-      <c r="W4">
+      <c r="AA4">
         <v>-1.2</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:27">
       <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>4378101</v>
+      </c>
+      <c r="C5">
+        <v>1747.7</v>
+      </c>
+      <c r="D5">
+        <v>4975.4</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>226</v>
+      </c>
+      <c r="H5">
+        <v>1366</v>
+      </c>
+      <c r="I5">
+        <v>75337</v>
+      </c>
+      <c r="J5">
+        <v>2505</v>
+      </c>
+      <c r="K5">
+        <v>1747.7</v>
+      </c>
+      <c r="L5">
+        <v>1727</v>
+      </c>
+      <c r="M5">
+        <v>68.90000000000001</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>1071735</v>
+      </c>
+      <c r="P5">
+        <v>427.8</v>
+      </c>
+      <c r="Q5">
+        <v>1414.1</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>492</v>
+      </c>
+      <c r="V5">
+        <v>37660</v>
+      </c>
+      <c r="W5">
+        <v>2505</v>
+      </c>
+      <c r="X5">
+        <v>427.8</v>
+      </c>
+      <c r="Y5">
+        <v>982</v>
+      </c>
+      <c r="Z5">
+        <v>39.2</v>
+      </c>
+      <c r="AA5">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>73388</v>
+      </c>
+      <c r="C6">
+        <v>4892.5</v>
+      </c>
+      <c r="D6">
+        <v>17787.3</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>60.5</v>
+      </c>
+      <c r="I6">
+        <v>69137</v>
+      </c>
+      <c r="J6">
         <v>15</v>
       </c>
-      <c r="B5">
-        <v>1747.7</v>
-      </c>
-      <c r="C5">
-        <v>4975.4</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>226</v>
-      </c>
-      <c r="G5">
-        <v>1366</v>
-      </c>
-      <c r="H5">
-        <v>75337</v>
-      </c>
-      <c r="I5">
-        <v>2505</v>
-      </c>
-      <c r="J5">
-        <v>1727</v>
-      </c>
-      <c r="K5">
-        <v>68.90000000000001</v>
-      </c>
-      <c r="L5">
+      <c r="K6">
+        <v>4892.5</v>
+      </c>
+      <c r="L6">
+        <v>5</v>
+      </c>
+      <c r="M6">
+        <v>33.3</v>
+      </c>
+      <c r="N6">
+        <v>-0.8</v>
+      </c>
+      <c r="O6">
+        <v>683</v>
+      </c>
+      <c r="P6">
+        <v>45.5</v>
+      </c>
+      <c r="Q6">
+        <v>176.3</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>683</v>
+      </c>
+      <c r="W6">
+        <v>15</v>
+      </c>
+      <c r="X6">
+        <v>45.5</v>
+      </c>
+      <c r="Y6">
         <v>1</v>
       </c>
-      <c r="M5">
-        <v>427.8</v>
-      </c>
-      <c r="N5">
-        <v>1414.1</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>492</v>
-      </c>
-      <c r="S5">
-        <v>37660</v>
-      </c>
-      <c r="T5">
-        <v>2505</v>
-      </c>
-      <c r="U5">
-        <v>982</v>
-      </c>
-      <c r="V5">
-        <v>39.2</v>
-      </c>
-      <c r="W5">
+      <c r="Z6">
+        <v>6.7</v>
+      </c>
+      <c r="AA6">
+        <v>-1.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7">
+        <v>184332</v>
+      </c>
+      <c r="C7">
+        <v>1961</v>
+      </c>
+      <c r="D7">
+        <v>5116.8</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>37.5</v>
+      </c>
+      <c r="H7">
+        <v>1044.5</v>
+      </c>
+      <c r="I7">
+        <v>25825</v>
+      </c>
+      <c r="J7">
+        <v>94</v>
+      </c>
+      <c r="K7">
+        <v>1961</v>
+      </c>
+      <c r="L7">
+        <v>55</v>
+      </c>
+      <c r="M7">
+        <v>58.5</v>
+      </c>
+      <c r="N7">
+        <v>0.4</v>
+      </c>
+      <c r="O7">
+        <v>59103</v>
+      </c>
+      <c r="P7">
+        <v>628.8</v>
+      </c>
+      <c r="Q7">
+        <v>1588.9</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>579.5</v>
+      </c>
+      <c r="V7">
+        <v>7684</v>
+      </c>
+      <c r="W7">
+        <v>94</v>
+      </c>
+      <c r="X7">
+        <v>628.8</v>
+      </c>
+      <c r="Y7">
+        <v>34</v>
+      </c>
+      <c r="Z7">
+        <v>36.2</v>
+      </c>
+      <c r="AA7">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <v>652259</v>
+      </c>
+      <c r="C8">
+        <v>1320.4</v>
+      </c>
+      <c r="D8">
+        <v>4881.1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>29</v>
+      </c>
+      <c r="H8">
+        <v>841.2</v>
+      </c>
+      <c r="I8">
+        <v>69234</v>
+      </c>
+      <c r="J8">
+        <v>494</v>
+      </c>
+      <c r="K8">
+        <v>1320.4</v>
+      </c>
+      <c r="L8">
+        <v>274</v>
+      </c>
+      <c r="M8">
+        <v>55.5</v>
+      </c>
+      <c r="N8">
+        <v>0.3</v>
+      </c>
+      <c r="O8">
+        <v>188754</v>
+      </c>
+      <c r="P8">
+        <v>382.1</v>
+      </c>
+      <c r="Q8">
+        <v>1910.9</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>151.5</v>
+      </c>
+      <c r="V8">
+        <v>37563</v>
+      </c>
+      <c r="W8">
+        <v>494</v>
+      </c>
+      <c r="X8">
+        <v>382.1</v>
+      </c>
+      <c r="Y8">
+        <v>136</v>
+      </c>
+      <c r="Z8">
+        <v>27.5</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
+      <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9">
+        <v>323511</v>
+      </c>
+      <c r="C9">
+        <v>1562.9</v>
+      </c>
+      <c r="D9">
+        <v>4420.3</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>98</v>
+      </c>
+      <c r="H9">
+        <v>1063</v>
+      </c>
+      <c r="I9">
+        <v>30943</v>
+      </c>
+      <c r="J9">
+        <v>207</v>
+      </c>
+      <c r="K9">
+        <v>1562.9</v>
+      </c>
+      <c r="L9">
+        <v>134</v>
+      </c>
+      <c r="M9">
+        <v>64.7</v>
+      </c>
+      <c r="N9">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="6" spans="1:23">
-      <c r="A6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6">
-        <v>4892.5</v>
-      </c>
-      <c r="C6">
-        <v>17787.3</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>60.5</v>
-      </c>
-      <c r="H6">
-        <v>69137</v>
-      </c>
-      <c r="I6">
-        <v>15</v>
-      </c>
-      <c r="J6">
-        <v>5</v>
-      </c>
-      <c r="K6">
-        <v>33.3</v>
-      </c>
-      <c r="L6">
-        <v>-0.8</v>
-      </c>
-      <c r="M6">
-        <v>45.5</v>
-      </c>
-      <c r="N6">
-        <v>176.3</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>683</v>
-      </c>
-      <c r="T6">
-        <v>15</v>
-      </c>
-      <c r="U6">
-        <v>1</v>
-      </c>
-      <c r="V6">
-        <v>6.7</v>
-      </c>
-      <c r="W6">
-        <v>-1.3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23">
-      <c r="A7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7">
-        <v>1961</v>
-      </c>
-      <c r="C7">
-        <v>5116.8</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>37.5</v>
-      </c>
-      <c r="G7">
-        <v>1044.5</v>
-      </c>
-      <c r="H7">
-        <v>25825</v>
-      </c>
-      <c r="I7">
+      <c r="O9">
+        <v>146458</v>
+      </c>
+      <c r="P9">
+        <v>707.5</v>
+      </c>
+      <c r="Q9">
+        <v>1992.4</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>548.5</v>
+      </c>
+      <c r="V9">
+        <v>13584</v>
+      </c>
+      <c r="W9">
+        <v>207</v>
+      </c>
+      <c r="X9">
+        <v>707.5</v>
+      </c>
+      <c r="Y9">
         <v>94</v>
       </c>
-      <c r="J7">
-        <v>55</v>
-      </c>
-      <c r="K7">
-        <v>58.5</v>
-      </c>
-      <c r="L7">
-        <v>0.4</v>
-      </c>
-      <c r="M7">
-        <v>628.8</v>
-      </c>
-      <c r="N7">
-        <v>1588.9</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>579.5</v>
-      </c>
-      <c r="S7">
-        <v>7684</v>
-      </c>
-      <c r="T7">
-        <v>94</v>
-      </c>
-      <c r="U7">
-        <v>34</v>
-      </c>
-      <c r="V7">
-        <v>36.2</v>
-      </c>
-      <c r="W7">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23">
-      <c r="A8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8">
-        <v>1320.4</v>
-      </c>
-      <c r="C8">
-        <v>4881.1</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>29</v>
-      </c>
-      <c r="G8">
-        <v>841.2</v>
-      </c>
-      <c r="H8">
-        <v>69234</v>
-      </c>
-      <c r="I8">
-        <v>494</v>
-      </c>
-      <c r="J8">
-        <v>274</v>
-      </c>
-      <c r="K8">
-        <v>55.5</v>
-      </c>
-      <c r="L8">
-        <v>0.3</v>
-      </c>
-      <c r="M8">
-        <v>382.1</v>
-      </c>
-      <c r="N8">
-        <v>1910.9</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>151.5</v>
-      </c>
-      <c r="S8">
-        <v>37563</v>
-      </c>
-      <c r="T8">
-        <v>494</v>
-      </c>
-      <c r="U8">
-        <v>136</v>
-      </c>
-      <c r="V8">
-        <v>27.5</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23">
-      <c r="A9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9">
-        <v>1562.9</v>
-      </c>
-      <c r="C9">
-        <v>4420.3</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>98</v>
-      </c>
-      <c r="G9">
-        <v>1063</v>
-      </c>
-      <c r="H9">
-        <v>30943</v>
-      </c>
-      <c r="I9">
-        <v>207</v>
-      </c>
-      <c r="J9">
-        <v>134</v>
-      </c>
-      <c r="K9">
-        <v>64.7</v>
-      </c>
-      <c r="L9">
-        <v>0.7</v>
-      </c>
-      <c r="M9">
-        <v>707.5</v>
-      </c>
-      <c r="N9">
-        <v>1992.4</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>548.5</v>
-      </c>
-      <c r="S9">
-        <v>13584</v>
-      </c>
-      <c r="T9">
-        <v>207</v>
-      </c>
-      <c r="U9">
-        <v>94</v>
-      </c>
-      <c r="V9">
+      <c r="Z9">
         <v>45.4</v>
       </c>
-      <c r="W9">
+      <c r="AA9">
         <v>1.1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B1:L1"/>
-    <mergeCell ref="M1:W1"/>
+    <mergeCell ref="B1:N1"/>
+    <mergeCell ref="O1:AA1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
